--- a/temp/kylo-sample-data.xlsx
+++ b/temp/kylo-sample-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Store" sheetId="1" r:id="rId1"/>
@@ -95,19 +95,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd</t>
+    <t>2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,43 +119,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ff</t>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大润发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家乐福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>io</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -507,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>50000</v>
@@ -524,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>80000</v>
@@ -541,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>90000</v>
@@ -558,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>58000</v>
@@ -575,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>70000</v>
@@ -592,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>30000</v>
@@ -614,7 +616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -646,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -667,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>70</v>
@@ -688,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -709,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -730,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>91</v>
@@ -751,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -772,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -793,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -814,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>3</v>
